--- a/biology/Zoologie/Eptesicus_brasiliensis/Eptesicus_brasiliensis.xlsx
+++ b/biology/Zoologie/Eptesicus_brasiliensis/Eptesicus_brasiliensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eptesicus brasiliensis est une espèce de chauves-souris américaine de la famille des Vespertilionidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eptesicus brasiliensis a une longueur de la tête et du corps entre 55 et 62 mm, la longueur de l'avant-bras entre 39 et 43 mm, la longueur de la queue entre 35 et 40 mm, la longueur du pied entre 9 et 11 mm, la longueur des oreilles entre 12 et 15 mm et un poids jusqu'à 10 g.
 La fourrure est courte, douce et soyeuse. Les parties dorsales varient du brun foncé au brun noirâtre, avec la base des poils claire, tandis que les parties ventrales sont plus claires, avec la base des poils noirâtre.
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est répandue sur le continent américain, dans les États mexicains de San Luis Potosí, Oaxaca et Chiapas, et du Costa Rica jusqu'au nord de l'Argentine et de l'Uruguay[1]. Il est également présent sur l'île de Trinidad. Comme elle est présente dans le Suriname, elle peut être aussi présente dans la Guyane[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répandue sur le continent américain, dans les États mexicains de San Luis Potosí, Oaxaca et Chiapas, et du Costa Rica jusqu'au nord de l'Argentine et de l'Uruguay. Il est également présent sur l'île de Trinidad. Comme elle est présente dans le Suriname, elle peut être aussi présente dans la Guyane.
 Il vit dans les forêts à feuilles persistantes et leurs bords jusqu'à 3 000 mètres d'altitude.
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>On recense quatre sous-espèces[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On recense quatre sous-espèces :
 E.b.argentinus  : (Cope, 1889): nord-est de l'Argentine, Uruguay, Paraguay, Brésil méridional ;
 E.b.brasiliensis : centre-est du Brésil ;
 E.b.melanopterus : (Jentink, 1904): Équateur et Pérou oriental, Colombie méridional, ouest du Brésil, l'île de Trinidad ;
@@ -612,14 +630,124 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colonie
-L'espèce dort entre l'écorce des arbres et dans les arbres creux et les trous d'arbres. On la trouve aussi dans les maisons.
-Alimentation
-Eptesicus brasiliensis est insectivore. L'activité prédatrice commence entre 30 minutes et une heure avant le coucher du soleil.
-Reproduction
-L'espèce donne naissance à 1 à 2 petits à la fois deux fois par an entre juillet et février.
-Parasitisme
-L'espèce peut porter le virus de la rage et Trypanosoma cruzi[3].
+          <t>Colonie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce dort entre l'écorce des arbres et dans les arbres creux et les trous d'arbres. On la trouve aussi dans les maisons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eptesicus_brasiliensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eptesicus_brasiliensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eptesicus brasiliensis est insectivore. L'activité prédatrice commence entre 30 minutes et une heure avant le coucher du soleil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eptesicus_brasiliensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eptesicus_brasiliensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce donne naissance à 1 à 2 petits à la fois deux fois par an entre juillet et février.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eptesicus_brasiliensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eptesicus_brasiliensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Parasitisme</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce peut porter le virus de la rage et Trypanosoma cruzi.
 </t>
         </is>
       </c>
